--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F822B8-7324-425A-BF1F-6B5C9AC0A29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C449AFF-4151-4FAB-AC10-77B9F8881152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +198,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +522,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,20 +552,20 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
@@ -823,60 +829,18 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -892,18 +856,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C449AFF-4151-4FAB-AC10-77B9F8881152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3200FFC-14FE-4BBF-8A6C-7AE1D419BC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Fecha</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Se completo el Curso de Git y Github para principiantes, Fundamentos de programación y introducción a HTML.</t>
+  </si>
+  <si>
+    <t>Se completo la unidad HTML y CSS conjuntamente con la practica</t>
+  </si>
+  <si>
+    <t>18/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizó toda la unidad de html y css conjuntamente con la práctica propuesta por el instructor de manera exitosa y sin problema alguno.</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,14 +577,20 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
@@ -829,18 +844,60 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -856,60 +913,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3200FFC-14FE-4BBF-8A6C-7AE1D419BC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECA78A-E697-40BF-9B5F-45AF7A3E4613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -56,13 +56,13 @@
     <t>Se completo el Curso de Git y Github para principiantes, Fundamentos de programación y introducción a HTML.</t>
   </si>
   <si>
-    <t>Se completo la unidad HTML y CSS conjuntamente con la practica</t>
-  </si>
-  <si>
     <t>18/06/2022 - 15:00 a 18:00</t>
   </si>
   <si>
     <t>Se realizó toda la unidad de html y css conjuntamente con la práctica propuesta por el instructor de manera exitosa y sin problema alguno.</t>
+  </si>
+  <si>
+    <t>Se completo la unidad HTML y CSS conjuntamente con la practica.</t>
   </si>
 </sst>
 </file>
@@ -203,16 +203,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +531,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,343 +561,301 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -913,18 +871,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECA78A-E697-40BF-9B5F-45AF7A3E4613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD74E1-E499-4B91-A0B4-576E952621A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Fecha</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Se completo la unidad HTML y CSS conjuntamente con la practica.</t>
+  </si>
+  <si>
+    <t>20/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizó toda la unidad de JavaScript Básico donde se refrescaron conocimientos ya adquiridos con anterioridad de manera exitoda y sin problema alguno.</t>
+  </si>
+  <si>
+    <t>Se completo la unidad de JavaScript Básico y se inicio la Unidad de Estructuras de control y Array en la cual se avanzo hasta la mitad de la misma.</t>
   </si>
 </sst>
 </file>
@@ -203,16 +212,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +540,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,41 +570,47 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
@@ -603,259 +618,301 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -871,60 +928,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD74E1-E499-4B91-A0B4-576E952621A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB3A9E-08E5-4BBC-8318-0A3E6C59A9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -50,28 +50,28 @@
     <t>17/06/2022 - 15:00 a 18:00</t>
   </si>
   <si>
-    <t>Se realizaron las unidades mencionadas en "Avanze del curso" de manera exitosa y sin problema alguno.</t>
-  </si>
-  <si>
     <t>Se completo el Curso de Git y Github para principiantes, Fundamentos de programación y introducción a HTML.</t>
   </si>
   <si>
     <t>18/06/2022 - 15:00 a 18:00</t>
   </si>
   <si>
-    <t>Se realizó toda la unidad de html y css conjuntamente con la práctica propuesta por el instructor de manera exitosa y sin problema alguno.</t>
-  </si>
-  <si>
     <t>Se completo la unidad HTML y CSS conjuntamente con la practica.</t>
   </si>
   <si>
     <t>20/06/2022 - 15:00 a 18:00</t>
   </si>
   <si>
-    <t>Se realizó toda la unidad de JavaScript Básico donde se refrescaron conocimientos ya adquiridos con anterioridad de manera exitoda y sin problema alguno.</t>
-  </si>
-  <si>
     <t>Se completo la unidad de JavaScript Básico y se inicio la Unidad de Estructuras de control y Array en la cual se avanzo hasta la mitad de la misma.</t>
+  </si>
+  <si>
+    <t>Se realizó toda la unidad de JavaScript Básico donde se refrescaron conocimientos ya adquiridos con anterioridad de manera exitósa y sin problema alguno.</t>
+  </si>
+  <si>
+    <t>Se realizó toda la unidad de html y css conjuntamente con la práctica propuesta por el instructor de manera exitósa y sin problema alguno.</t>
+  </si>
+  <si>
+    <t>Se realizaron las unidades mencionadas en "Avanze del curso" de manera exitósa y sin problema alguno.</t>
   </si>
 </sst>
 </file>
@@ -212,16 +212,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +540,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,349 +570,307 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -928,18 +886,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB3A9E-08E5-4BBC-8318-0A3E6C59A9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70332E5-28A7-4927-8102-8DF5A9E3EA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Se realizaron las unidades mencionadas en "Avanze del curso" de manera exitósa y sin problema alguno.</t>
+  </si>
+  <si>
+    <t>Se completo la unidad de Estructuras de control y Array y tambien se Completo la unidad de Funciones en JavaScript</t>
+  </si>
+  <si>
+    <t>21/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizó las practicas con la temática de arrays y bucles conjuntamente con la de funciones en JavaScript de manera exitósa.</t>
   </si>
 </sst>
 </file>
@@ -212,16 +221,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,57 +579,63 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
@@ -628,249 +643,291 @@
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -886,60 +943,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70332E5-28A7-4927-8102-8DF5A9E3EA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C91AB43-1B8C-4115-A1A7-82849EE7946D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Se realizó las practicas con la temática de arrays y bucles conjuntamente con la de funciones en JavaScript de manera exitósa.</t>
+  </si>
+  <si>
+    <t>22/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizo más prácticas sobre funciones en JavaScript para que este tema quede claro y no presente problemas para futuro, con respecto al DOM no se presentaron problemas pero si se requiere más estudio para que el tema quede claro.</t>
+  </si>
+  <si>
+    <t>Se realizo más prácticas con el tema de funciones en JavaScript y se Inicio la unidad de Manipulación de DOM en JavaScript.</t>
   </si>
 </sst>
 </file>
@@ -221,16 +230,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,355 +588,319 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -943,18 +916,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C91AB43-1B8C-4115-A1A7-82849EE7946D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BAB12B-0D28-4996-A6C6-249B274C78B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Fecha</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Se realizo más prácticas con el tema de funciones en JavaScript y se Inicio la unidad de Manipulación de DOM en JavaScript.</t>
+  </si>
+  <si>
+    <t>23/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizaron prácticas con respecto al DOM para que el tema quede claro, se seguiran realizando más prácticas en este tema hasta que no queden dudas.</t>
+  </si>
+  <si>
+    <t>Se realizaron prácticas para reforzar el concepto del DOM en JavaScript</t>
   </si>
 </sst>
 </file>
@@ -230,16 +239,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,89 +597,95 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
@@ -678,229 +693,271 @@
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -916,60 +973,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BAB12B-0D28-4996-A6C6-249B274C78B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61959167-4D8E-48D9-B406-BB27ED94548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Se realizaron prácticas para reforzar el concepto del DOM en JavaScript</t>
+  </si>
+  <si>
+    <t>Se realizaron prácticas sobre DOM, Patrón Modular y Minificar Código.</t>
+  </si>
+  <si>
+    <t>Se realizaron prácticas sobre el DOM para afirmar conocimientos, patrón modular para proteger nuestro código y minificación de código, no se tuvo problemas.</t>
+  </si>
+  <si>
+    <t>24/06/2022 - 15:00 a 18:00</t>
   </si>
 </sst>
 </file>
@@ -239,16 +248,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +576,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,105 +606,111 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
@@ -703,261 +718,219 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -973,18 +946,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61959167-4D8E-48D9-B406-BB27ED94548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52298F61-2D77-41C1-AC8A-C588488792D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Fecha</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>24/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Introducción al lenguaje de programación PHP y utilización de framework para el diseño de nuestras paginas como bootstrap y materialize.</t>
+  </si>
+  <si>
+    <t>25/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizo la introducción al lenguaje de programación PHP y a frameworks de estilo, todo esto se abarco sin ningun problema.</t>
   </si>
 </sst>
 </file>
@@ -248,16 +257,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,121 +615,127 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
@@ -728,209 +743,251 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -946,60 +1003,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52298F61-2D77-41C1-AC8A-C588488792D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30937F31-1FC1-44A6-87CF-26EB0577DB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Fecha</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Se realizo la introducción al lenguaje de programación PHP y a frameworks de estilo, todo esto se abarco sin ningun problema.</t>
+  </si>
+  <si>
+    <t>PHP sentencias y ciclos, con una práctica pequeña</t>
+  </si>
+  <si>
+    <t>27/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizo el estudio de PHP y pequeñas practicas sobre las sentencias y los ciclos.</t>
   </si>
 </sst>
 </file>
@@ -257,16 +266,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +594,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E20"/>
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,137 +624,143 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
@@ -753,241 +768,199 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -1003,18 +976,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30937F31-1FC1-44A6-87CF-26EB0577DB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763B757E-65F5-4655-B104-4312DB1C5EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Fecha</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Se realizo el estudio de PHP y pequeñas practicas sobre las sentencias y los ciclos.</t>
+  </si>
+  <si>
+    <t>Programación Web desde 0 con PHP 8, Mysql, Laravel y Symfony</t>
+  </si>
+  <si>
+    <t>28/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizo la introducción a Programación Web desde 0 con PHP 8, Mysql, Laravel y Symfony, todo esto se abarco sin ningun problema.</t>
   </si>
 </sst>
 </file>
@@ -266,16 +275,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +603,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+      <selection activeCell="E23" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,153 +633,159 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
@@ -778,189 +793,231 @@
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -976,60 +1033,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763B757E-65F5-4655-B104-4312DB1C5EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F31FB8-329E-47E1-B341-39D169D4496A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Fecha</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Se realizo la introducción a Programación Web desde 0 con PHP 8, Mysql, Laravel y Symfony, todo esto se abarco sin ningun problema.</t>
+  </si>
+  <si>
+    <t>Realización de ejercicios practicos con JavaScript y Php</t>
+  </si>
+  <si>
+    <t>29/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizo prácticas con JavaScript y PHP, se tuvo difilcutades básicas pero se solucionaron.</t>
   </si>
 </sst>
 </file>
@@ -275,16 +284,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,169 +642,175 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6"/>
@@ -803,221 +818,179 @@
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -1033,18 +1006,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F31FB8-329E-47E1-B341-39D169D4496A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23CC20E-1BA9-45CC-B62C-014190F91440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Fecha</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>Se realizo prácticas con JavaScript y PHP, se tuvo difilcutades básicas pero se solucionaron.</t>
+  </si>
+  <si>
+    <t>Se analizo el formato ieee 830 para la entrega de documentos formales y especificaciones de Sotfware.</t>
+  </si>
+  <si>
+    <t>Realización de ejercicios practicos con JavaScript y Php parte 2</t>
+  </si>
+  <si>
+    <t>30/06/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>01/07/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se realizo el analisis de la norma ieee 830 para entrega de requerimientos, diagramas y documentación de un proyecto.</t>
   </si>
 </sst>
 </file>
@@ -284,16 +299,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,185 +657,191 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="8"/>
@@ -828,9 +849,15 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="8"/>
@@ -838,159 +865,201 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -1006,60 +1075,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23CC20E-1BA9-45CC-B62C-014190F91440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EBE85B-B48C-4063-A193-01A613E275AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Fecha</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>Se realizo el analisis de la norma ieee 830 para entrega de requerimientos, diagramas y documentación de un proyecto.</t>
+  </si>
+  <si>
+    <t>Programaciòn orientada a objetos en JavaScript</t>
+  </si>
+  <si>
+    <t>02/07/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se analizo y se dio introduccion a la programaciòn orientada a objetos con JavaScript</t>
+  </si>
+  <si>
+    <t>Se aprendio lo que son clases, objetos, herencia, encapsulamiento y las propiedades estàticas.</t>
+  </si>
+  <si>
+    <t>04/07/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se analizo y aprendio lo conserniente a la POO no se presento problemas por el momento </t>
   </si>
 </sst>
 </file>
@@ -299,16 +317,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +645,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E30"/>
+      <selection activeCell="E33" sqref="E33:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,217 +675,223 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
@@ -875,9 +899,15 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="6"/>
@@ -885,181 +915,139 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -1075,18 +1063,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akega\Documents\GitHub\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EBE85B-B48C-4063-A193-01A613E275AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAAF19D-13CA-4C0D-857D-ECD75B6FCB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Fecha</t>
   </si>
@@ -177,6 +177,66 @@
   </si>
   <si>
     <t xml:space="preserve">Se analizo y aprendio lo conserniente a la POO no se presento problemas por el momento </t>
+  </si>
+  <si>
+    <t>05/07/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>06/07/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>07/07/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>08/07/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>09/07/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se analizo los paquetes de Módulos webpack</t>
+  </si>
+  <si>
+    <t>Se analizo los paquetes de Módulos webpack no se tuvo problemas</t>
+  </si>
+  <si>
+    <t>11/07/2022 - 15:00 a 18:00</t>
+  </si>
+  <si>
+    <t>Se introdujo al modulo de back-end express</t>
+  </si>
+  <si>
+    <t>Se introdujo al modulo de back-end express sin problemas</t>
+  </si>
+  <si>
+    <t>Se culmino el modulo de back-end express y se reviso las bases de datos y la modularizacion</t>
+  </si>
+  <si>
+    <t>Se culmino el modulo de back-end express y se reviso las bases de datos y la modularizacion se dificulto por que no se tenia conocimientos previos de este tema</t>
+  </si>
+  <si>
+    <t>Se introdujo al modulo de python</t>
+  </si>
+  <si>
+    <t>Se reviso y instalo todo lo necesario para comenzar</t>
+  </si>
+  <si>
+    <t>Se dio inicio a python basico donde vimos variables, tipos de datos, cadena de caracteres entre otros.</t>
+  </si>
+  <si>
+    <t>Se dio inicio a python basico donde vimos variables, tipos de datos, cadena de caracteres entre otros, no se tuvo problemas ya que la se tiene conociminetos en programación</t>
+  </si>
+  <si>
+    <t>Se realizaron practicas con python basico</t>
+  </si>
+  <si>
+    <t>Se realizaron practicas con python basico no se tuvo problemas</t>
+  </si>
+  <si>
+    <t>Se inicio las estructuras de control y colecciones con python</t>
+  </si>
+  <si>
+    <t>Se inicio las estructuras de control y colecciones con python no se tuvo problema</t>
   </si>
 </sst>
 </file>
@@ -317,16 +377,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,249 +735,255 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="8"/>
@@ -925,9 +991,15 @@
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="8"/>
@@ -935,9 +1007,15 @@
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="8"/>
@@ -945,9 +1023,15 @@
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
@@ -955,9 +1039,15 @@
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="8"/>
@@ -965,9 +1055,15 @@
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="8"/>
@@ -975,9 +1071,15 @@
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="8"/>
@@ -985,69 +1087,111 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -1063,60 +1207,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
